--- a/input/glider.xlsx
+++ b/input/glider.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa552ef20cc137d9/Documenten/GitHub/AE4204-KBE-TL-NvN-2025/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="11_F25DC773A252ABDACC1048C8199E45285BDE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D48931E-F257-4C4D-83AF-3617D2AFDB58}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="11_F25DC773A252ABDACC1048C8199E45285BDE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24E2CFB1-5220-4A58-9D3A-52B511D762A6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,21 +72,6 @@
     <t>Classes</t>
   </si>
   <si>
-    <t>15m</t>
-  </si>
-  <si>
-    <t>18m</t>
-  </si>
-  <si>
-    <t>20m</t>
-  </si>
-  <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
     <t>[m]</t>
   </si>
   <si>
@@ -127,6 +112,21 @@
   </si>
   <si>
     <t>Structural material used in the glider</t>
+  </si>
+  <si>
+    <t>standard class</t>
+  </si>
+  <si>
+    <t>15m class</t>
+  </si>
+  <si>
+    <t>18m class</t>
+  </si>
+  <si>
+    <t>20m class</t>
+  </si>
+  <si>
+    <t>open class</t>
   </si>
 </sst>
 </file>
@@ -287,11 +287,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -624,32 +623,32 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="90.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2">
@@ -658,78 +657,78 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D5" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3">
-        <v>25</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="3">
-        <v>80</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="D7" s="12" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -760,11 +759,12 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -773,38 +773,38 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
